--- a/RegistreCompte.xlsx
+++ b/RegistreCompte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Listing des comptes à l'ouverture</t>
   </si>
@@ -29,7 +29,10 @@
     <t>Banque</t>
   </si>
   <si>
-    <t>ADE</t>
+    <t>Prenom ADE</t>
+  </si>
+  <si>
+    <t>Nom ADE</t>
   </si>
   <si>
     <t>AUM</t>
@@ -59,7 +62,10 @@
     <t>Banque du plat pays</t>
   </si>
   <si>
-    <t>Maurice la salope</t>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>la salope</t>
   </si>
   <si>
     <t>10</t>
@@ -80,25 +86,28 @@
     <t>Paul</t>
   </si>
   <si>
-    <t>Paul le pleutre</t>
+    <t>lepleutre</t>
   </si>
   <si>
     <t>Gerard</t>
   </si>
   <si>
-    <t>GeGe l'enc..</t>
+    <t xml:space="preserve">GeGe </t>
+  </si>
+  <si>
+    <t>l'enc</t>
   </si>
   <si>
     <t>Marcelle</t>
   </si>
   <si>
-    <t>En avant Marcelle</t>
+    <t>lapucelle</t>
   </si>
   <si>
     <t>Jacki</t>
   </si>
   <si>
-    <t>Jacki kéké</t>
+    <t>kéké</t>
   </si>
 </sst>
 </file>
@@ -169,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -185,6 +194,7 @@
     <col min="8" max="8" width="20.0" customWidth="true"/>
     <col min="9" max="9" width="20.0" customWidth="true"/>
     <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="11" max="11" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -223,165 +233,183 @@
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
